--- a/Stock/src/main/resources/layout/LayoutMoneda.xlsx
+++ b/Stock/src/main/resources/layout/LayoutMoneda.xlsx
@@ -3,14 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19710" windowHeight="9000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="Catalogo Monedas" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Nombre</t>
   </si>
@@ -37,14 +41,17 @@
     <t>USD$</t>
   </si>
   <si>
-    <t>EUR</t>
+    <t>€</t>
+  </si>
+  <si>
+    <t>EUR€</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,6 +66,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -87,12 +100,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -373,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -384,15 +398,18 @@
     <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="H1" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -400,12 +417,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
